--- a/paises.xlsx
+++ b/paises.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\copa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a20a830037c9ff3/Documentos/GitHub/Copa_do_Mundo_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E9A407-0E30-481A-B213-F1CFB9154968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{77E9A407-0E30-481A-B213-F1CFB9154968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7592CB1-5106-4291-A062-3E9D3C54005C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,574 +807,574 @@
     <t>Venezuela</t>
   </si>
   <si>
+    <t>NAME_PT</t>
+  </si>
+  <si>
+    <t>Emirados Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Afeganistão</t>
+  </si>
+  <si>
+    <t>Albânia</t>
+  </si>
+  <si>
+    <t>Armênia</t>
+  </si>
+  <si>
+    <t>Samoa Americana</t>
+  </si>
+  <si>
+    <t>Áustria</t>
+  </si>
+  <si>
+    <t>Austrália</t>
+  </si>
+  <si>
+    <t>Azerbaijão</t>
+  </si>
+  <si>
+    <t>Bósnia e Herzegovina</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>Bermudas</t>
+  </si>
+  <si>
+    <t>Bulgária</t>
+  </si>
+  <si>
+    <t>Bahrein</t>
+  </si>
+  <si>
+    <t>Bolívia</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Bielorrússia</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Butão</t>
+  </si>
+  <si>
+    <t>Ilhas Cocos (Keeling)</t>
+  </si>
+  <si>
+    <t>República Centro-Africana</t>
+  </si>
+  <si>
+    <t>Suíça</t>
+  </si>
+  <si>
+    <t>Costa do Marfim</t>
+  </si>
+  <si>
+    <t>Ilhas Cook</t>
+  </si>
+  <si>
+    <t>República Democrática do Congo</t>
+  </si>
+  <si>
+    <t>Colômbia</t>
+  </si>
+  <si>
+    <t>Camarões</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Eritreia</t>
+  </si>
+  <si>
+    <t>Espanha</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>Argélia</t>
+  </si>
+  <si>
+    <t>Equador</t>
+  </si>
+  <si>
+    <t>Estônia</t>
+  </si>
+  <si>
+    <t>Egito</t>
+  </si>
+  <si>
+    <t>Grécia</t>
+  </si>
+  <si>
+    <t>Saara Ocidental</t>
+  </si>
+  <si>
+    <t>Ilha do Natal</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Geórgia</t>
+  </si>
+  <si>
+    <t>Gana</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Gabão</t>
+  </si>
+  <si>
+    <t>Etiópia</t>
+  </si>
+  <si>
+    <t>Finlândia</t>
+  </si>
+  <si>
+    <t>Ilhas Falkland</t>
+  </si>
+  <si>
+    <t>Guiana</t>
+  </si>
+  <si>
+    <t>Heard Island e McDonald Islands</t>
+  </si>
+  <si>
+    <t>Croácia</t>
+  </si>
+  <si>
+    <t>Groenlândia</t>
+  </si>
+  <si>
+    <t>Gâmbia</t>
+  </si>
+  <si>
+    <t>Guiné</t>
+  </si>
+  <si>
+    <t>Guiné Equatorial</t>
+  </si>
+  <si>
+    <t>Geórgia do Sul e as Ilhas Sandwich Sul</t>
+  </si>
+  <si>
+    <t>Hungria</t>
+  </si>
+  <si>
+    <t>Indonésia</t>
+  </si>
+  <si>
+    <t>Irlanda</t>
+  </si>
+  <si>
+    <t>Índia</t>
+  </si>
+  <si>
+    <t>Território do Oceano Índico Britânico</t>
+  </si>
+  <si>
+    <t>Iraque</t>
+  </si>
+  <si>
+    <t>Irã</t>
+  </si>
+  <si>
+    <t>Islândia</t>
+  </si>
+  <si>
+    <t>Itália</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>Santa Lúcia</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>Libéria</t>
+  </si>
+  <si>
+    <t>Lesoto</t>
+  </si>
+  <si>
+    <t>Lituânia</t>
+  </si>
+  <si>
+    <t>Jordânia</t>
+  </si>
+  <si>
+    <t>Quênia</t>
+  </si>
+  <si>
+    <t>Luxemburgo</t>
+  </si>
+  <si>
+    <t>Letônia</t>
+  </si>
+  <si>
+    <t>Ilhas Cayman</t>
+  </si>
+  <si>
+    <t>Camboja</t>
+  </si>
+  <si>
+    <t>Líbia</t>
+  </si>
+  <si>
+    <t>São Cristóvão e Nevis</t>
+  </si>
+  <si>
+    <t>Cazaquistão</t>
+  </si>
+  <si>
+    <t>Coreia do Norte</t>
+  </si>
+  <si>
+    <t>Coreia do Sul</t>
+  </si>
+  <si>
+    <t>Maldivas</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Malásia</t>
+  </si>
+  <si>
+    <t>Ilhas Marshall</t>
+  </si>
+  <si>
+    <t>Macedônia do Norte</t>
+  </si>
+  <si>
+    <t>Mongólia</t>
+  </si>
+  <si>
+    <t>Mônaco</t>
+  </si>
+  <si>
+    <t>Ilhas Marianas do Norte</t>
+  </si>
+  <si>
+    <t>Mauritânia</t>
+  </si>
+  <si>
+    <t>Moldávia</t>
+  </si>
+  <si>
+    <t>Maurício</t>
+  </si>
+  <si>
+    <t>Nova Caledônia</t>
+  </si>
+  <si>
+    <t>Níger</t>
+  </si>
+  <si>
+    <t>Nigéria</t>
+  </si>
+  <si>
+    <t>Nicarágua</t>
+  </si>
+  <si>
+    <t>Marrocos</t>
+  </si>
+  <si>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Polinésia Francesa</t>
+  </si>
+  <si>
+    <t>Papua Nova Guiné</t>
+  </si>
+  <si>
+    <t>Filipinas</t>
+  </si>
+  <si>
+    <t>Paquistão</t>
+  </si>
+  <si>
+    <t>Nova Zelândia</t>
+  </si>
+  <si>
+    <t>Omã</t>
+  </si>
+  <si>
+    <t>Romênia</t>
+  </si>
+  <si>
+    <t>Saint Pierre e Miquelon</t>
+  </si>
+  <si>
+    <t>Sérvia</t>
+  </si>
+  <si>
+    <t>Polônia</t>
+  </si>
+  <si>
+    <t>Porto Rico</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>Paraguai</t>
+  </si>
+  <si>
+    <t>Arábia Saudita</t>
+  </si>
+  <si>
+    <t>Ilhas Salomão</t>
+  </si>
+  <si>
+    <t>Ruanda</t>
+  </si>
+  <si>
+    <t>Sudão</t>
+  </si>
+  <si>
+    <t>Suécia</t>
+  </si>
+  <si>
+    <t>Somália</t>
+  </si>
+  <si>
+    <t>Trinidad e Tobago</t>
+  </si>
+  <si>
+    <t>Eslovênia</t>
+  </si>
+  <si>
+    <t>Svalbard e Jan Mayen</t>
+  </si>
+  <si>
+    <t>Sudão do Sul</t>
+  </si>
+  <si>
+    <t>São Tomé e Príncipe</t>
+  </si>
+  <si>
+    <t>Síria</t>
+  </si>
+  <si>
+    <t>Ilhas Turcas e Caicos</t>
+  </si>
+  <si>
+    <t>República Unida da Tanzânia</t>
+  </si>
+  <si>
+    <t>Ucrânia</t>
+  </si>
+  <si>
+    <t>Chade</t>
+  </si>
+  <si>
+    <t>Serra Leoa</t>
+  </si>
+  <si>
+    <t>Tunísia</t>
+  </si>
+  <si>
+    <t>Eslováquia</t>
+  </si>
+  <si>
+    <t>Terras francesas do sul e antártica</t>
+  </si>
+  <si>
+    <t>Tailândia</t>
+  </si>
+  <si>
+    <t>Turquia</t>
+  </si>
+  <si>
+    <t>Cingapura</t>
+  </si>
+  <si>
+    <t>Santa Helena, Ascensão e Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Ilhas Menores Distantes dos Estados Unidos</t>
+  </si>
+  <si>
+    <t>Ilhas Virgens Britânicas</t>
+  </si>
+  <si>
+    <t>África do Sul</t>
+  </si>
+  <si>
+    <t>Vietnã</t>
+  </si>
+  <si>
+    <t>Zâmbia</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Zimbábue</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius e Saba</t>
+  </si>
+  <si>
+    <t>Uruguai</t>
+  </si>
+  <si>
+    <t>Wallis e Futuna</t>
+  </si>
+  <si>
+    <t>Ilhas Paracel</t>
+  </si>
+  <si>
+    <t>Asasi Chin</t>
+  </si>
+  <si>
+    <t>China / Índia</t>
+  </si>
+  <si>
+    <t>Uzbequistão</t>
+  </si>
+  <si>
+    <t>Cidade do Vaticano</t>
+  </si>
+  <si>
+    <t>São Vicente e Granadinas</t>
+  </si>
+  <si>
+    <t>Bassas da Índia</t>
+  </si>
+  <si>
+    <t>Bir Tawil (território disputado)</t>
+  </si>
+  <si>
+    <t>Botsuana</t>
+  </si>
+  <si>
+    <t>Ilha Bouvet</t>
+  </si>
+  <si>
+    <t>Ilha de Clipperton</t>
+  </si>
+  <si>
+    <t>Djibuti</t>
+  </si>
+  <si>
+    <t>Micronésia</t>
+  </si>
+  <si>
+    <t>Guiné-Bissau</t>
+  </si>
+  <si>
+    <t>Quirguistão</t>
+  </si>
+  <si>
+    <t>Comores</t>
+  </si>
+  <si>
+    <t>Myanmar / Birmânia</t>
+  </si>
+  <si>
+    <t>Ilha de Norfolk</t>
+  </si>
+  <si>
+    <t>Namíbia</t>
+  </si>
+  <si>
+    <t>Ilhas de Pitcairn</t>
+  </si>
+  <si>
+    <t>Turquemenistão</t>
+  </si>
+  <si>
+    <t>Ilhas Virgens dos EUA</t>
+  </si>
+  <si>
+    <t>Ilhas Spratly</t>
+  </si>
+  <si>
+    <t>Triângulo Hala'ib</t>
+  </si>
+  <si>
+    <t>Triângulo Ilemi</t>
+  </si>
+  <si>
+    <t>Ilha de Navassa</t>
+  </si>
+  <si>
+    <t>Recife de Scarborough</t>
+  </si>
+  <si>
+    <t>Ilhas Senkaku</t>
+  </si>
+  <si>
+    <t>Jammu Cashmir</t>
+  </si>
+  <si>
+    <t>Ilhas Kuril</t>
+  </si>
+  <si>
+    <t>Rússia</t>
+  </si>
+  <si>
+    <t>Iêmen</t>
+  </si>
+  <si>
+    <t>Tadjiquistão</t>
+  </si>
+  <si>
+    <t>Ilha do Homem</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Antígua e Barbuda</t>
+  </si>
+  <si>
+    <t>Antártida</t>
+  </si>
+  <si>
+    <t>São Bartolomeu</t>
+  </si>
+  <si>
+    <t>República Tcheca</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
     <t>NAME_ENGL</t>
-  </si>
-  <si>
-    <t>NAME_PT</t>
-  </si>
-  <si>
-    <t>Emirados Árabes Unidos</t>
-  </si>
-  <si>
-    <t>Afeganistão</t>
-  </si>
-  <si>
-    <t>Albânia</t>
-  </si>
-  <si>
-    <t>Armênia</t>
-  </si>
-  <si>
-    <t>Samoa Americana</t>
-  </si>
-  <si>
-    <t>Áustria</t>
-  </si>
-  <si>
-    <t>Austrália</t>
-  </si>
-  <si>
-    <t>Azerbaijão</t>
-  </si>
-  <si>
-    <t>Bósnia e Herzegovina</t>
-  </si>
-  <si>
-    <t>Bélgica</t>
-  </si>
-  <si>
-    <t>Bermudas</t>
-  </si>
-  <si>
-    <t>Bulgária</t>
-  </si>
-  <si>
-    <t>Bahrein</t>
-  </si>
-  <si>
-    <t>Bolívia</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Bielorrússia</t>
-  </si>
-  <si>
-    <t>Canadá</t>
-  </si>
-  <si>
-    <t>Butão</t>
-  </si>
-  <si>
-    <t>Ilhas Cocos (Keeling)</t>
-  </si>
-  <si>
-    <t>República Centro-Africana</t>
-  </si>
-  <si>
-    <t>Suíça</t>
-  </si>
-  <si>
-    <t>Costa do Marfim</t>
-  </si>
-  <si>
-    <t>Ilhas Cook</t>
-  </si>
-  <si>
-    <t>República Democrática do Congo</t>
-  </si>
-  <si>
-    <t>Colômbia</t>
-  </si>
-  <si>
-    <t>Camarões</t>
-  </si>
-  <si>
-    <t>Dinamarca</t>
-  </si>
-  <si>
-    <t>Eritreia</t>
-  </si>
-  <si>
-    <t>Espanha</t>
-  </si>
-  <si>
-    <t>República Dominicana</t>
-  </si>
-  <si>
-    <t>Argélia</t>
-  </si>
-  <si>
-    <t>Equador</t>
-  </si>
-  <si>
-    <t>Estônia</t>
-  </si>
-  <si>
-    <t>Egito</t>
-  </si>
-  <si>
-    <t>Grécia</t>
-  </si>
-  <si>
-    <t>Saara Ocidental</t>
-  </si>
-  <si>
-    <t>Ilha do Natal</t>
-  </si>
-  <si>
-    <t>Chipre</t>
-  </si>
-  <si>
-    <t>Alemanha</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Geórgia</t>
-  </si>
-  <si>
-    <t>Gana</t>
-  </si>
-  <si>
-    <t>França</t>
-  </si>
-  <si>
-    <t>Gabão</t>
-  </si>
-  <si>
-    <t>Etiópia</t>
-  </si>
-  <si>
-    <t>Finlândia</t>
-  </si>
-  <si>
-    <t>Ilhas Falkland</t>
-  </si>
-  <si>
-    <t>Guiana</t>
-  </si>
-  <si>
-    <t>Heard Island e McDonald Islands</t>
-  </si>
-  <si>
-    <t>Croácia</t>
-  </si>
-  <si>
-    <t>Groenlândia</t>
-  </si>
-  <si>
-    <t>Gâmbia</t>
-  </si>
-  <si>
-    <t>Guiné</t>
-  </si>
-  <si>
-    <t>Guiné Equatorial</t>
-  </si>
-  <si>
-    <t>Geórgia do Sul e as Ilhas Sandwich Sul</t>
-  </si>
-  <si>
-    <t>Hungria</t>
-  </si>
-  <si>
-    <t>Indonésia</t>
-  </si>
-  <si>
-    <t>Irlanda</t>
-  </si>
-  <si>
-    <t>Índia</t>
-  </si>
-  <si>
-    <t>Território do Oceano Índico Britânico</t>
-  </si>
-  <si>
-    <t>Iraque</t>
-  </si>
-  <si>
-    <t>Irã</t>
-  </si>
-  <si>
-    <t>Islândia</t>
-  </si>
-  <si>
-    <t>Itália</t>
-  </si>
-  <si>
-    <t>Líbano</t>
-  </si>
-  <si>
-    <t>Santa Lúcia</t>
-  </si>
-  <si>
-    <t>Japão</t>
-  </si>
-  <si>
-    <t>Libéria</t>
-  </si>
-  <si>
-    <t>Lesoto</t>
-  </si>
-  <si>
-    <t>Lituânia</t>
-  </si>
-  <si>
-    <t>Jordânia</t>
-  </si>
-  <si>
-    <t>Quênia</t>
-  </si>
-  <si>
-    <t>Luxemburgo</t>
-  </si>
-  <si>
-    <t>Letônia</t>
-  </si>
-  <si>
-    <t>Ilhas Cayman</t>
-  </si>
-  <si>
-    <t>Camboja</t>
-  </si>
-  <si>
-    <t>Líbia</t>
-  </si>
-  <si>
-    <t>São Cristóvão e Nevis</t>
-  </si>
-  <si>
-    <t>Cazaquistão</t>
-  </si>
-  <si>
-    <t>Coreia do Norte</t>
-  </si>
-  <si>
-    <t>Coreia do Sul</t>
-  </si>
-  <si>
-    <t>Maldivas</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Malásia</t>
-  </si>
-  <si>
-    <t>Ilhas Marshall</t>
-  </si>
-  <si>
-    <t>Macedônia do Norte</t>
-  </si>
-  <si>
-    <t>Mongólia</t>
-  </si>
-  <si>
-    <t>Mônaco</t>
-  </si>
-  <si>
-    <t>Ilhas Marianas do Norte</t>
-  </si>
-  <si>
-    <t>Mauritânia</t>
-  </si>
-  <si>
-    <t>Moldávia</t>
-  </si>
-  <si>
-    <t>Maurício</t>
-  </si>
-  <si>
-    <t>Nova Caledônia</t>
-  </si>
-  <si>
-    <t>Níger</t>
-  </si>
-  <si>
-    <t>Nigéria</t>
-  </si>
-  <si>
-    <t>Nicarágua</t>
-  </si>
-  <si>
-    <t>Marrocos</t>
-  </si>
-  <si>
-    <t>Holanda</t>
-  </si>
-  <si>
-    <t>Noruega</t>
-  </si>
-  <si>
-    <t>Moçambique</t>
-  </si>
-  <si>
-    <t>Panamá</t>
-  </si>
-  <si>
-    <t>Polinésia Francesa</t>
-  </si>
-  <si>
-    <t>Papua Nova Guiné</t>
-  </si>
-  <si>
-    <t>Filipinas</t>
-  </si>
-  <si>
-    <t>Paquistão</t>
-  </si>
-  <si>
-    <t>Nova Zelândia</t>
-  </si>
-  <si>
-    <t>Omã</t>
-  </si>
-  <si>
-    <t>Romênia</t>
-  </si>
-  <si>
-    <t>Saint Pierre e Miquelon</t>
-  </si>
-  <si>
-    <t>Sérvia</t>
-  </si>
-  <si>
-    <t>Polônia</t>
-  </si>
-  <si>
-    <t>Porto Rico</t>
-  </si>
-  <si>
-    <t>Palestina</t>
-  </si>
-  <si>
-    <t>Paraguai</t>
-  </si>
-  <si>
-    <t>Arábia Saudita</t>
-  </si>
-  <si>
-    <t>Ilhas Salomão</t>
-  </si>
-  <si>
-    <t>Ruanda</t>
-  </si>
-  <si>
-    <t>Sudão</t>
-  </si>
-  <si>
-    <t>Suécia</t>
-  </si>
-  <si>
-    <t>Somália</t>
-  </si>
-  <si>
-    <t>Trinidad e Tobago</t>
-  </si>
-  <si>
-    <t>Eslovênia</t>
-  </si>
-  <si>
-    <t>Svalbard e Jan Mayen</t>
-  </si>
-  <si>
-    <t>Sudão do Sul</t>
-  </si>
-  <si>
-    <t>São Tomé e Príncipe</t>
-  </si>
-  <si>
-    <t>Síria</t>
-  </si>
-  <si>
-    <t>Ilhas Turcas e Caicos</t>
-  </si>
-  <si>
-    <t>República Unida da Tanzânia</t>
-  </si>
-  <si>
-    <t>Ucrânia</t>
-  </si>
-  <si>
-    <t>Chade</t>
-  </si>
-  <si>
-    <t>Serra Leoa</t>
-  </si>
-  <si>
-    <t>Tunísia</t>
-  </si>
-  <si>
-    <t>Eslováquia</t>
-  </si>
-  <si>
-    <t>Terras francesas do sul e antártica</t>
-  </si>
-  <si>
-    <t>Tailândia</t>
-  </si>
-  <si>
-    <t>Turquia</t>
-  </si>
-  <si>
-    <t>Cingapura</t>
-  </si>
-  <si>
-    <t>Santa Helena, Ascensão e Tristan da Cunha</t>
-  </si>
-  <si>
-    <t>Ilhas Menores Distantes dos Estados Unidos</t>
-  </si>
-  <si>
-    <t>Ilhas Virgens Britânicas</t>
-  </si>
-  <si>
-    <t>África do Sul</t>
-  </si>
-  <si>
-    <t>Vietnã</t>
-  </si>
-  <si>
-    <t>Zâmbia</t>
-  </si>
-  <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
-    <t>Zimbábue</t>
-  </si>
-  <si>
-    <t>Bonaire, Sint Eustatius e Saba</t>
-  </si>
-  <si>
-    <t>Uruguai</t>
-  </si>
-  <si>
-    <t>Wallis e Futuna</t>
-  </si>
-  <si>
-    <t>Ilhas Paracel</t>
-  </si>
-  <si>
-    <t>Asasi Chin</t>
-  </si>
-  <si>
-    <t>China / Índia</t>
-  </si>
-  <si>
-    <t>Uzbequistão</t>
-  </si>
-  <si>
-    <t>Cidade do Vaticano</t>
-  </si>
-  <si>
-    <t>São Vicente e Granadinas</t>
-  </si>
-  <si>
-    <t>Bassas da Índia</t>
-  </si>
-  <si>
-    <t>Bir Tawil (território disputado)</t>
-  </si>
-  <si>
-    <t>Botsuana</t>
-  </si>
-  <si>
-    <t>Ilha Bouvet</t>
-  </si>
-  <si>
-    <t>Ilha de Clipperton</t>
-  </si>
-  <si>
-    <t>Djibuti</t>
-  </si>
-  <si>
-    <t>Micronésia</t>
-  </si>
-  <si>
-    <t>Guiné-Bissau</t>
-  </si>
-  <si>
-    <t>Quirguistão</t>
-  </si>
-  <si>
-    <t>Comores</t>
-  </si>
-  <si>
-    <t>Myanmar / Birmânia</t>
-  </si>
-  <si>
-    <t>Ilha de Norfolk</t>
-  </si>
-  <si>
-    <t>Namíbia</t>
-  </si>
-  <si>
-    <t>Ilhas de Pitcairn</t>
-  </si>
-  <si>
-    <t>Turquemenistão</t>
-  </si>
-  <si>
-    <t>Ilhas Virgens dos EUA</t>
-  </si>
-  <si>
-    <t>Ilhas Spratly</t>
-  </si>
-  <si>
-    <t>Triângulo Hala'ib</t>
-  </si>
-  <si>
-    <t>Triângulo Ilemi</t>
-  </si>
-  <si>
-    <t>Ilha de Navassa</t>
-  </si>
-  <si>
-    <t>Recife de Scarborough</t>
-  </si>
-  <si>
-    <t>Ilhas Senkaku</t>
-  </si>
-  <si>
-    <t>Jammu Cashmir</t>
-  </si>
-  <si>
-    <t>Ilhas Kuril</t>
-  </si>
-  <si>
-    <t>Rússia</t>
-  </si>
-  <si>
-    <t>Iêmen</t>
-  </si>
-  <si>
-    <t>Tadjiquistão</t>
-  </si>
-  <si>
-    <t>Ilha do Homem</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Antígua e Barbuda</t>
-  </si>
-  <si>
-    <t>Antártida</t>
-  </si>
-  <si>
-    <t>São Bartolomeu</t>
-  </si>
-  <si>
-    <t>República Tcheca</t>
-  </si>
-  <si>
-    <t>Reino Unido</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,10 +1755,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>226</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>183</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>240</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1958,7 +1958,7 @@
         <v>253</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1966,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1998,7 +1998,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2006,7 +2006,7 @@
         <v>255</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2022,7 +2022,7 @@
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2030,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2038,7 +2038,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2046,7 +2046,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2086,7 +2086,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2094,7 +2094,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2102,7 +2102,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2110,7 +2110,7 @@
         <v>123</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2126,7 +2126,7 @@
         <v>128</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
         <v>206</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2158,7 +2158,7 @@
         <v>241</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2166,7 +2166,7 @@
         <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
         <v>249</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2182,7 +2182,7 @@
         <v>218</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2190,7 +2190,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2198,7 +2198,7 @@
         <v>126</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2214,7 +2214,7 @@
         <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2222,7 +2222,7 @@
         <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
         <v>40</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2246,7 +2246,7 @@
         <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2270,7 +2270,7 @@
         <v>49</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2278,7 +2278,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2294,7 +2294,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2318,7 +2318,7 @@
         <v>55</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2326,7 +2326,7 @@
         <v>51</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
         <v>211</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
         <v>193</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2350,7 +2350,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2358,7 +2358,7 @@
         <v>229</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2366,7 +2366,7 @@
         <v>57</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2406,7 +2406,7 @@
         <v>167</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2422,7 +2422,7 @@
         <v>74</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2430,7 +2430,7 @@
         <v>75</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2438,7 +2438,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2446,7 +2446,7 @@
         <v>70</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2454,7 +2454,7 @@
         <v>68</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,7 +2462,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2478,7 +2478,7 @@
         <v>67</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2486,7 +2486,7 @@
         <v>60</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2494,7 +2494,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2526,7 +2526,7 @@
         <v>80</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2534,7 +2534,7 @@
         <v>87</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2542,7 +2542,7 @@
         <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2550,7 +2550,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2566,7 +2566,7 @@
         <v>82</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2574,7 +2574,7 @@
         <v>156</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2598,7 +2598,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2606,7 +2606,7 @@
         <v>225</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2614,7 +2614,7 @@
         <v>35</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2622,7 +2622,7 @@
         <v>44</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2630,7 +2630,7 @@
         <v>245</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2638,7 +2638,7 @@
         <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2646,7 +2646,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2654,7 +2654,7 @@
         <v>63</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2670,7 +2670,7 @@
         <v>36</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2678,7 +2678,7 @@
         <v>41</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2686,7 +2686,7 @@
         <v>173</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2694,7 +2694,7 @@
         <v>79</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2702,7 +2702,7 @@
         <v>252</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2710,7 +2710,7 @@
         <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
         <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2726,7 +2726,7 @@
         <v>220</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2734,7 +2734,7 @@
         <v>238</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2742,7 +2742,7 @@
         <v>184</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2750,7 +2750,7 @@
         <v>247</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2758,7 +2758,7 @@
         <v>239</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2766,7 +2766,7 @@
         <v>203</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2774,7 +2774,7 @@
         <v>223</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2782,7 +2782,7 @@
         <v>224</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2790,7 +2790,7 @@
         <v>97</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2798,7 +2798,7 @@
         <v>95</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2806,7 +2806,7 @@
         <v>222</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2814,7 +2814,7 @@
         <v>102</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2822,7 +2822,7 @@
         <v>101</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2830,7 +2830,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2838,7 +2838,7 @@
         <v>103</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2854,7 +2854,7 @@
         <v>104</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2870,7 +2870,7 @@
         <v>251</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2878,7 +2878,7 @@
         <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2894,7 +2894,7 @@
         <v>116</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2926,7 +2926,7 @@
         <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2934,7 +2934,7 @@
         <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2942,7 +2942,7 @@
         <v>106</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2950,7 +2950,7 @@
         <v>111</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2958,7 +2958,7 @@
         <v>124</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
         <v>114</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2982,7 +2982,7 @@
         <v>118</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2998,7 +2998,7 @@
         <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3014,7 +3014,7 @@
         <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3030,7 +3030,7 @@
         <v>131</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3054,7 +3054,7 @@
         <v>155</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3062,7 +3062,7 @@
         <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3070,7 +3070,7 @@
         <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3078,7 +3078,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3086,7 +3086,7 @@
         <v>72</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>158</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3102,7 +3102,7 @@
         <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3110,7 +3110,7 @@
         <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
         <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3142,7 +3142,7 @@
         <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3150,7 +3150,7 @@
         <v>159</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3174,7 +3174,7 @@
         <v>154</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3182,7 +3182,7 @@
         <v>151</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,7 +3190,7 @@
         <v>153</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3206,7 +3206,7 @@
         <v>157</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3214,7 +3214,7 @@
         <v>150</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3222,7 +3222,7 @@
         <v>169</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3246,7 +3246,7 @@
         <v>178</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3254,7 +3254,7 @@
         <v>160</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3262,7 +3262,7 @@
         <v>166</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3270,7 +3270,7 @@
         <v>168</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3278,7 +3278,7 @@
         <v>181</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3294,7 +3294,7 @@
         <v>165</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3302,7 +3302,7 @@
         <v>176</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3310,7 +3310,7 @@
         <v>177</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3334,7 +3334,7 @@
         <v>117</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3342,7 +3342,7 @@
         <v>120</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
         <v>246</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3358,7 +3358,7 @@
         <v>37</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3366,7 +3366,7 @@
         <v>43</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>53</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3382,7 +3382,7 @@
         <v>65</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3390,7 +3390,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3398,7 +3398,7 @@
         <v>171</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3406,7 +3406,7 @@
         <v>186</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3414,7 +3414,7 @@
         <v>175</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3422,7 @@
         <v>62</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3430,7 +3430,7 @@
         <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3462,7 +3462,7 @@
         <v>219</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3470,7 +3470,7 @@
         <v>107</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3478,7 +3478,7 @@
         <v>26</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3486,7 +3486,7 @@
         <v>127</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3494,7 +3494,7 @@
         <v>196</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3502,7 +3502,7 @@
         <v>250</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3518,7 +3518,7 @@
         <v>208</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3526,7 +3526,7 @@
         <v>174</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3550,7 +3550,7 @@
         <v>199</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3558,7 +3558,7 @@
         <v>189</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3574,7 +3574,7 @@
         <v>187</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3582,7 +3582,7 @@
         <v>195</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>188</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3598,7 +3598,7 @@
         <v>39</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3614,7 +3614,7 @@
         <v>194</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3622,7 +3622,7 @@
         <v>197</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3630,7 +3630,7 @@
         <v>214</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3638,7 +3638,7 @@
         <v>212</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3646,7 +3646,7 @@
         <v>100</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3686,7 +3686,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
         <v>191</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3710,7 +3710,7 @@
         <v>210</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3718,7 +3718,7 @@
         <v>207</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>216</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3742,7 +3742,7 @@
         <v>205</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3758,7 +3758,7 @@
         <v>234</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>248</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3790,7 +3790,7 @@
         <v>227</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3798,7 +3798,7 @@
         <v>236</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3806,7 +3806,7 @@
         <v>228</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>230</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
